--- a/Midterm/Problem 1/Operational&Timing.xlsx
+++ b/Midterm/Problem 1/Operational&Timing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renzo\projects\Midterm\Problem 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F466718-B066-4617-AAD2-78580E768B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5F7A6D-5E15-4660-A3DD-7189FB59FFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{795FE829-84D6-4B84-9E16-08C745053A8F}"/>
   </bookViews>
